--- a/cfg/si/key_cmd.xlsx
+++ b/cfg/si/key_cmd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="11700" windowHeight="6075"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="11700" windowHeight="6075" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="key assignment" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,14 @@
     <sheet name="Sheet1" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'key assignment'!$A$1:$G$430</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'key assignment'!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3143" uniqueCount="1452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3143" uniqueCount="1453">
   <si>
     <t>Application</t>
   </si>
@@ -4649,6 +4649,10 @@
   </si>
   <si>
     <t>ms k</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5114,13 +5118,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G430"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="E355" sqref="E355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5136,7 +5139,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>838</v>
+        <v>1452</v>
       </c>
       <c r="B1" t="s">
         <v>836</v>
@@ -5154,7 +5157,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5168,7 +5171,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -5196,7 +5199,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -5210,7 +5213,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -5224,7 +5227,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -5238,7 +5241,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -5252,7 +5255,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -5266,7 +5269,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -5280,7 +5283,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -5294,7 +5297,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -5308,7 +5311,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -5336,7 +5339,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -5350,7 +5353,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -5364,7 +5367,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -5378,7 +5381,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -5392,7 +5395,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -5406,7 +5409,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -5420,7 +5423,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -5434,7 +5437,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -5448,7 +5451,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -5462,7 +5465,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
@@ -5476,7 +5479,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
@@ -5490,7 +5493,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
@@ -5504,7 +5507,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
@@ -5518,7 +5521,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
@@ -5532,7 +5535,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
@@ -5546,7 +5549,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -5560,7 +5563,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -5574,7 +5577,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
@@ -5588,7 +5591,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
@@ -5602,7 +5605,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
@@ -5616,7 +5619,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>2</v>
       </c>
@@ -5630,7 +5633,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
@@ -5644,7 +5647,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>2</v>
       </c>
@@ -5658,7 +5661,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -5672,7 +5675,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>2</v>
       </c>
@@ -5700,7 +5703,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>3</v>
       </c>
@@ -5711,7 +5714,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>3</v>
       </c>
@@ -5725,7 +5728,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>3</v>
       </c>
@@ -5753,7 +5756,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>3</v>
       </c>
@@ -5801,7 +5804,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>3</v>
       </c>
@@ -5815,7 +5818,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>3</v>
       </c>
@@ -5874,7 +5877,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>3</v>
       </c>
@@ -5888,7 +5891,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>3</v>
       </c>
@@ -5902,7 +5905,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>3</v>
       </c>
@@ -5919,7 +5922,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>3</v>
       </c>
@@ -5936,7 +5939,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>3</v>
       </c>
@@ -5950,7 +5953,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>3</v>
       </c>
@@ -5995,7 +5998,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>3</v>
       </c>
@@ -6023,7 +6026,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>3</v>
       </c>
@@ -6037,7 +6040,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>3</v>
       </c>
@@ -6051,7 +6054,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>3</v>
       </c>
@@ -6104,7 +6107,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>3</v>
       </c>
@@ -6118,7 +6121,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>3</v>
       </c>
@@ -6202,7 +6205,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>3</v>
       </c>
@@ -6216,7 +6219,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>3</v>
       </c>
@@ -6233,7 +6236,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>3</v>
       </c>
@@ -6247,7 +6250,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>3</v>
       </c>
@@ -6261,7 +6264,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>3</v>
       </c>
@@ -6289,7 +6292,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>3</v>
       </c>
@@ -6303,7 +6306,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>3</v>
       </c>
@@ -6317,7 +6320,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>3</v>
       </c>
@@ -6348,7 +6351,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>3</v>
       </c>
@@ -6376,7 +6379,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>3</v>
       </c>
@@ -6418,7 +6421,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
         <v>3</v>
       </c>
@@ -6432,7 +6435,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
         <v>3</v>
       </c>
@@ -6446,7 +6449,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>3</v>
       </c>
@@ -6460,7 +6463,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
         <v>3</v>
       </c>
@@ -6474,7 +6477,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
         <v>3</v>
       </c>
@@ -6488,7 +6491,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
         <v>3</v>
       </c>
@@ -6502,7 +6505,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
         <v>3</v>
       </c>
@@ -6516,7 +6519,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
         <v>3</v>
       </c>
@@ -6533,7 +6536,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>3</v>
       </c>
@@ -6561,7 +6564,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
         <v>3</v>
       </c>
@@ -6589,7 +6592,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
         <v>4</v>
       </c>
@@ -6603,7 +6606,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
         <v>4</v>
       </c>
@@ -6617,7 +6620,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
         <v>4</v>
       </c>
@@ -6659,7 +6662,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
         <v>4</v>
       </c>
@@ -6673,7 +6676,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
         <v>4</v>
       </c>
@@ -6687,7 +6690,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
         <v>4</v>
       </c>
@@ -6715,7 +6718,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
         <v>4</v>
       </c>
@@ -6729,7 +6732,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
         <v>4</v>
       </c>
@@ -6757,7 +6760,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
         <v>4</v>
       </c>
@@ -6785,7 +6788,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
         <v>4</v>
       </c>
@@ -6799,7 +6802,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
         <v>4</v>
       </c>
@@ -6827,7 +6830,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
         <v>4</v>
       </c>
@@ -6855,7 +6858,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
         <v>4</v>
       </c>
@@ -6883,7 +6886,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
         <v>4</v>
       </c>
@@ -6897,7 +6900,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
         <v>4</v>
       </c>
@@ -6925,7 +6928,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
         <v>5</v>
       </c>
@@ -6939,7 +6942,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
         <v>5</v>
       </c>
@@ -6956,7 +6959,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
         <v>5</v>
       </c>
@@ -6970,7 +6973,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
         <v>5</v>
       </c>
@@ -6984,7 +6987,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
         <v>5</v>
       </c>
@@ -6998,7 +7001,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
         <v>5</v>
       </c>
@@ -7012,7 +7015,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
         <v>6</v>
       </c>
@@ -7026,7 +7029,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
         <v>6</v>
       </c>
@@ -7040,7 +7043,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
         <v>6</v>
       </c>
@@ -7054,7 +7057,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
         <v>6</v>
       </c>
@@ -7068,7 +7071,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
         <v>6</v>
       </c>
@@ -7096,7 +7099,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
         <v>6</v>
       </c>
@@ -7124,7 +7127,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
         <v>6</v>
       </c>
@@ -7139,7 +7142,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
         <v>6</v>
       </c>
@@ -7209,7 +7212,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
         <v>6</v>
       </c>
@@ -7705,7 +7708,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A182" s="1" t="s">
         <v>6</v>
       </c>
@@ -7722,7 +7725,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A183" s="1" t="s">
         <v>6</v>
       </c>
@@ -7736,7 +7739,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
         <v>6</v>
       </c>
@@ -7750,7 +7753,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A185" s="1" t="s">
         <v>6</v>
       </c>
@@ -7764,7 +7767,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A186" s="1" t="s">
         <v>6</v>
       </c>
@@ -7778,7 +7781,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
         <v>6</v>
       </c>
@@ -7792,7 +7795,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A188" s="1" t="s">
         <v>6</v>
       </c>
@@ -7806,7 +7809,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A189" s="1" t="s">
         <v>6</v>
       </c>
@@ -7820,7 +7823,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
         <v>6</v>
       </c>
@@ -7834,7 +7837,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
         <v>6</v>
       </c>
@@ -7862,7 +7865,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A193" s="1" t="s">
         <v>6</v>
       </c>
@@ -7876,7 +7879,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A194" s="1" t="s">
         <v>6</v>
       </c>
@@ -7890,7 +7893,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A195" s="1" t="s">
         <v>6</v>
       </c>
@@ -7904,7 +7907,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A196" s="1" t="s">
         <v>6</v>
       </c>
@@ -7921,7 +7924,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A197" s="1" t="s">
         <v>6</v>
       </c>
@@ -7935,7 +7938,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A198" s="1" t="s">
         <v>6</v>
       </c>
@@ -7949,7 +7952,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A199" s="1" t="s">
         <v>6</v>
       </c>
@@ -7963,7 +7966,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A200" s="1" t="s">
         <v>6</v>
       </c>
@@ -8020,7 +8023,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A204" s="1" t="s">
         <v>7</v>
       </c>
@@ -8098,7 +8101,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A210" s="1" t="s">
         <v>7</v>
       </c>
@@ -8157,7 +8160,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A214" s="1" t="s">
         <v>7</v>
       </c>
@@ -8171,7 +8174,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A215" s="1" t="s">
         <v>7</v>
       </c>
@@ -8227,7 +8230,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A219" s="1" t="s">
         <v>7</v>
       </c>
@@ -8241,7 +8244,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A220" s="1" t="s">
         <v>7</v>
       </c>
@@ -8255,7 +8258,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A221" s="1" t="s">
         <v>7</v>
       </c>
@@ -8269,7 +8272,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A222" s="1" t="s">
         <v>8</v>
       </c>
@@ -8283,7 +8286,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A223" s="1" t="s">
         <v>8</v>
       </c>
@@ -8297,7 +8300,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A224" s="1" t="s">
         <v>8</v>
       </c>
@@ -8311,7 +8314,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A225" s="1" t="s">
         <v>8</v>
       </c>
@@ -8325,7 +8328,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A226" s="1" t="s">
         <v>8</v>
       </c>
@@ -8367,7 +8370,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A229" s="1" t="s">
         <v>8</v>
       </c>
@@ -8454,7 +8457,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A235" s="1" t="s">
         <v>8</v>
       </c>
@@ -8468,7 +8471,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A236" s="1" t="s">
         <v>8</v>
       </c>
@@ -8485,7 +8488,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A237" s="1" t="s">
         <v>8</v>
       </c>
@@ -8555,7 +8558,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A242" s="1" t="s">
         <v>8</v>
       </c>
@@ -8611,7 +8614,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A246" s="1" t="s">
         <v>8</v>
       </c>
@@ -8642,7 +8645,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A248" s="1" t="s">
         <v>8</v>
       </c>
@@ -8656,7 +8659,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A249" s="1" t="s">
         <v>8</v>
       </c>
@@ -8684,7 +8687,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A251" s="1" t="s">
         <v>8</v>
       </c>
@@ -8715,7 +8718,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A253" s="1" t="s">
         <v>8</v>
       </c>
@@ -8785,7 +8788,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A258" s="1" t="s">
         <v>8</v>
       </c>
@@ -8800,7 +8803,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A259" s="1" t="s">
         <v>8</v>
       </c>
@@ -8814,7 +8817,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A260" s="1" t="s">
         <v>8</v>
       </c>
@@ -8856,7 +8859,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A263" s="1" t="s">
         <v>8</v>
       </c>
@@ -8870,7 +8873,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A264" s="1" t="s">
         <v>8</v>
       </c>
@@ -8884,7 +8887,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A265" s="1" t="s">
         <v>8</v>
       </c>
@@ -8898,7 +8901,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A266" s="1" t="s">
         <v>8</v>
       </c>
@@ -8912,7 +8915,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A267" s="1" t="s">
         <v>8</v>
       </c>
@@ -8929,7 +8932,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A268" s="1" t="s">
         <v>8</v>
       </c>
@@ -8946,7 +8949,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A269" s="1" t="s">
         <v>8</v>
       </c>
@@ -8988,7 +8991,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A272" s="1" t="s">
         <v>8</v>
       </c>
@@ -9002,7 +9005,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A273" s="1" t="s">
         <v>8</v>
       </c>
@@ -9044,7 +9047,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A276" s="1" t="s">
         <v>8</v>
       </c>
@@ -9058,7 +9061,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A277" s="1" t="s">
         <v>8</v>
       </c>
@@ -9086,7 +9089,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A279" s="1" t="s">
         <v>8</v>
       </c>
@@ -9100,7 +9103,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A280" s="1" t="s">
         <v>8</v>
       </c>
@@ -9128,7 +9131,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A282" s="1" t="s">
         <v>8</v>
       </c>
@@ -9142,7 +9145,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A283" s="1" t="s">
         <v>8</v>
       </c>
@@ -9156,7 +9159,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A284" s="1" t="s">
         <v>8</v>
       </c>
@@ -9173,7 +9176,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A285" s="1" t="s">
         <v>8</v>
       </c>
@@ -9190,7 +9193,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A286" s="1" t="s">
         <v>8</v>
       </c>
@@ -9207,7 +9210,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A287" s="1" t="s">
         <v>8</v>
       </c>
@@ -9238,7 +9241,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A289" s="1" t="s">
         <v>8</v>
       </c>
@@ -9255,7 +9258,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A290" s="1" t="s">
         <v>8</v>
       </c>
@@ -9272,7 +9275,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A291" s="1" t="s">
         <v>8</v>
       </c>
@@ -9289,7 +9292,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A292" s="1" t="s">
         <v>8</v>
       </c>
@@ -9303,7 +9306,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A293" s="1" t="s">
         <v>8</v>
       </c>
@@ -9317,7 +9320,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A294" s="1" t="s">
         <v>8</v>
       </c>
@@ -9331,7 +9334,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A295" s="1" t="s">
         <v>8</v>
       </c>
@@ -9348,7 +9351,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A296" s="1" t="s">
         <v>8</v>
       </c>
@@ -9362,7 +9365,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A297" s="1" t="s">
         <v>8</v>
       </c>
@@ -9376,7 +9379,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A298" s="1" t="s">
         <v>8</v>
       </c>
@@ -9390,7 +9393,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A299" s="1" t="s">
         <v>9</v>
       </c>
@@ -9404,7 +9407,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A300" s="1" t="s">
         <v>9</v>
       </c>
@@ -9418,7 +9421,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A301" s="1" t="s">
         <v>9</v>
       </c>
@@ -9432,7 +9435,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A302" s="1" t="s">
         <v>9</v>
       </c>
@@ -9446,7 +9449,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A303" s="1" t="s">
         <v>9</v>
       </c>
@@ -9460,7 +9463,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A304" s="1" t="s">
         <v>9</v>
       </c>
@@ -9502,7 +9505,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A307" s="1" t="s">
         <v>9</v>
       </c>
@@ -9516,7 +9519,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A308" s="1" t="s">
         <v>9</v>
       </c>
@@ -9530,7 +9533,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A309" s="1" t="s">
         <v>9</v>
       </c>
@@ -9544,7 +9547,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A310" s="1" t="s">
         <v>9</v>
       </c>
@@ -9558,7 +9561,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A311" s="1" t="s">
         <v>9</v>
       </c>
@@ -9586,7 +9589,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A313" s="1" t="s">
         <v>9</v>
       </c>
@@ -9600,7 +9603,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A314" s="1" t="s">
         <v>9</v>
       </c>
@@ -9614,7 +9617,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A315" s="1" t="s">
         <v>9</v>
       </c>
@@ -9628,7 +9631,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A316" s="1" t="s">
         <v>9</v>
       </c>
@@ -9642,7 +9645,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A317" s="1" t="s">
         <v>9</v>
       </c>
@@ -9656,7 +9659,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A318" s="1" t="s">
         <v>9</v>
       </c>
@@ -9670,7 +9673,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A319" s="1" t="s">
         <v>9</v>
       </c>
@@ -9684,7 +9687,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A320" s="1" t="s">
         <v>9</v>
       </c>
@@ -9698,7 +9701,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A321" s="1" t="s">
         <v>9</v>
       </c>
@@ -9712,7 +9715,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A322" s="1" t="s">
         <v>9</v>
       </c>
@@ -9726,7 +9729,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A323" s="1" t="s">
         <v>9</v>
       </c>
@@ -9740,7 +9743,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A324" s="1" t="s">
         <v>9</v>
       </c>
@@ -9754,7 +9757,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A325" s="1" t="s">
         <v>9</v>
       </c>
@@ -9768,7 +9771,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A326" s="1" t="s">
         <v>9</v>
       </c>
@@ -9782,7 +9785,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A327" s="1" t="s">
         <v>9</v>
       </c>
@@ -9796,7 +9799,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A328" s="1" t="s">
         <v>9</v>
       </c>
@@ -9810,7 +9813,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A329" s="1" t="s">
         <v>9</v>
       </c>
@@ -9824,7 +9827,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A330" s="1" t="s">
         <v>9</v>
       </c>
@@ -9838,7 +9841,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A331" s="1" t="s">
         <v>9</v>
       </c>
@@ -9852,7 +9855,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A332" s="1" t="s">
         <v>9</v>
       </c>
@@ -9866,7 +9869,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A333" s="1" t="s">
         <v>9</v>
       </c>
@@ -9880,7 +9883,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A334" s="1" t="s">
         <v>9</v>
       </c>
@@ -9894,7 +9897,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A335" s="1" t="s">
         <v>9</v>
       </c>
@@ -9908,7 +9911,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A336" s="1" t="s">
         <v>9</v>
       </c>
@@ -9922,7 +9925,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A337" s="1" t="s">
         <v>9</v>
       </c>
@@ -9936,7 +9939,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A338" s="1" t="s">
         <v>9</v>
       </c>
@@ -9950,7 +9953,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A339" s="1" t="s">
         <v>9</v>
       </c>
@@ -9964,7 +9967,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A340" s="1" t="s">
         <v>10</v>
       </c>
@@ -9978,7 +9981,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A341" s="1" t="s">
         <v>10</v>
       </c>
@@ -9993,7 +9996,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A342" s="1" t="s">
         <v>10</v>
       </c>
@@ -10064,7 +10067,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A347" s="1" t="s">
         <v>10</v>
       </c>
@@ -10078,7 +10081,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A348" s="1" t="s">
         <v>10</v>
       </c>
@@ -10162,7 +10165,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A354" s="1" t="s">
         <v>11</v>
       </c>
@@ -10260,7 +10263,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A361" s="1" t="s">
         <v>11</v>
       </c>
@@ -10288,7 +10291,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A363" s="1" t="s">
         <v>12</v>
       </c>
@@ -10302,7 +10305,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A364" s="1" t="s">
         <v>12</v>
       </c>
@@ -10316,7 +10319,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A365" s="1" t="s">
         <v>12</v>
       </c>
@@ -10330,7 +10333,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A366" s="1" t="s">
         <v>12</v>
       </c>
@@ -10344,7 +10347,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A367" s="1" t="s">
         <v>12</v>
       </c>
@@ -10470,7 +10473,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A376" s="1" t="s">
         <v>13</v>
       </c>
@@ -10484,7 +10487,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A377" s="1" t="s">
         <v>13</v>
       </c>
@@ -10498,7 +10501,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A378" s="1" t="s">
         <v>14</v>
       </c>
@@ -10512,7 +10515,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A379" s="1" t="s">
         <v>14</v>
       </c>
@@ -10526,7 +10529,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A380" s="1" t="s">
         <v>14</v>
       </c>
@@ -10540,7 +10543,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A381" s="1" t="s">
         <v>14</v>
       </c>
@@ -10554,7 +10557,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A382" s="1" t="s">
         <v>14</v>
       </c>
@@ -10568,7 +10571,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A383" s="1" t="s">
         <v>14</v>
       </c>
@@ -10582,7 +10585,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A384" s="1" t="s">
         <v>14</v>
       </c>
@@ -10596,7 +10599,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A385" s="1" t="s">
         <v>14</v>
       </c>
@@ -10610,7 +10613,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A386" s="1" t="s">
         <v>14</v>
       </c>
@@ -10624,7 +10627,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A387" s="1" t="s">
         <v>14</v>
       </c>
@@ -10638,7 +10641,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A388" s="1" t="s">
         <v>14</v>
       </c>
@@ -10666,7 +10669,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A390" s="1" t="s">
         <v>15</v>
       </c>
@@ -10680,7 +10683,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A391" s="1" t="s">
         <v>15</v>
       </c>
@@ -10708,7 +10711,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A393" s="1" t="s">
         <v>15</v>
       </c>
@@ -10722,7 +10725,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A394" s="1" t="s">
         <v>15</v>
       </c>
@@ -10736,7 +10739,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A395" s="1" t="s">
         <v>15</v>
       </c>
@@ -10750,7 +10753,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A396" s="1" t="s">
         <v>15</v>
       </c>
@@ -10764,7 +10767,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A397" s="1" t="s">
         <v>15</v>
       </c>
@@ -10778,7 +10781,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A398" s="1" t="s">
         <v>15</v>
       </c>
@@ -10792,7 +10795,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A399" s="1" t="s">
         <v>15</v>
       </c>
@@ -10806,7 +10809,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A400" s="1" t="s">
         <v>15</v>
       </c>
@@ -10820,7 +10823,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A401" s="1" t="s">
         <v>15</v>
       </c>
@@ -10834,7 +10837,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="402" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A402" s="1" t="s">
         <v>15</v>
       </c>
@@ -10848,7 +10851,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A403" s="1" t="s">
         <v>15</v>
       </c>
@@ -10862,7 +10865,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A404" s="1" t="s">
         <v>15</v>
       </c>
@@ -10876,7 +10879,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="405" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A405" s="1" t="s">
         <v>15</v>
       </c>
@@ -10890,7 +10893,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A406" s="1" t="s">
         <v>15</v>
       </c>
@@ -10904,7 +10907,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="407" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A407" s="1" t="s">
         <v>15</v>
       </c>
@@ -10918,7 +10921,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="408" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A408" s="1" t="s">
         <v>15</v>
       </c>
@@ -10932,7 +10935,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A409" s="1" t="s">
         <v>15</v>
       </c>
@@ -10946,7 +10949,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A410" s="1" t="s">
         <v>15</v>
       </c>
@@ -10960,7 +10963,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="411" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A411" s="1" t="s">
         <v>15</v>
       </c>
@@ -10974,7 +10977,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A412" s="1" t="s">
         <v>16</v>
       </c>
@@ -10988,7 +10991,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A413" s="1" t="s">
         <v>16</v>
       </c>
@@ -11019,7 +11022,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A415" s="1" t="s">
         <v>16</v>
       </c>
@@ -11033,7 +11036,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A416" s="1" t="s">
         <v>16</v>
       </c>
@@ -11047,7 +11050,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A417" s="1" t="s">
         <v>16</v>
       </c>
@@ -11061,7 +11064,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A418" s="1" t="s">
         <v>16</v>
       </c>
@@ -11103,7 +11106,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A421" s="1" t="s">
         <v>16</v>
       </c>
@@ -11117,7 +11120,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A422" s="1" t="s">
         <v>16</v>
       </c>
@@ -11131,7 +11134,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A423" s="1" t="s">
         <v>16</v>
       </c>
@@ -11145,7 +11148,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A424" s="1" t="s">
         <v>16</v>
       </c>
@@ -11159,7 +11162,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A425" s="1" t="s">
         <v>16</v>
       </c>
@@ -11173,7 +11176,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A426" s="1" t="s">
         <v>16</v>
       </c>
@@ -11187,7 +11190,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A427" s="1" t="s">
         <v>16</v>
       </c>
@@ -11201,7 +11204,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A428" s="1" t="s">
         <v>16</v>
       </c>
@@ -11215,7 +11218,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A429" s="1" t="s">
         <v>16</v>
       </c>
@@ -11229,7 +11232,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A430" s="1" t="s">
         <v>16</v>
       </c>
@@ -11244,14 +11247,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G430">
-    <filterColumn colId="3">
-      <filters blank="1"/>
-    </filterColumn>
-    <sortState ref="A4:G420">
-      <sortCondition ref="B1:B430"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:G1"/>
   <sortState ref="A2:F423">
     <sortCondition ref="A2:A423"/>
   </sortState>
@@ -15930,8 +15926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16013,6 +16009,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
